--- a/biology/Botanique/Aster_maritime/Aster_maritime.xlsx
+++ b/biology/Botanique/Aster_maritime/Aster_maritime.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Tripolium pannonicum, Aster tripolium · Oreille de cochon
 L'Aster maritime, Tripolium pannonicum (synonyme ancien Aster tripolium L.) est une espèce de plantes à fleurs de la famille des Astéracées. Elle est également appelée Oreille de cochon.
@@ -513,10 +525,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est une plante à fleur herbacée vivace ou bisannuelle, halophile typique des marais salés de 20 à 60 cm de haut possédant des fleurs groupées en capitules. Les fleurs du centre (tubes) sont jaunes, les fleurs en languettes, périphériques des capitules (ligulées, improprement appelées pétales) sont lilas à blanc. L'inflorescence est un corymbe de capitules.
-La floraison a lieu de juillet à novembre[1], sur les falaises et dans les prés-salés. Les feuilles sont vertes à nervure centrale marquée ; les radicales ovales, les caulinaires lancéolées et étroites. Très ramifiées, ses tiges sont glabres et charnues. Elle est comestible crue ou cuite surtout en période juvénile (taille de la feuille de 5 à 20 mm). C'est dans cet état qu'elle ressemblerait « presque » à une oreille de cochon.
+La floraison a lieu de juillet à novembre, sur les falaises et dans les prés-salés. Les feuilles sont vertes à nervure centrale marquée ; les radicales ovales, les caulinaires lancéolées et étroites. Très ramifiées, ses tiges sont glabres et charnues. Elle est comestible crue ou cuite surtout en période juvénile (taille de la feuille de 5 à 20 mm). C'est dans cet état qu'elle ressemblerait « presque » à une oreille de cochon.
 Elle se cuisine très facilement et se marie avec toutes viandes et poissons. Dans la Baie de Somme, on parle aussi d'« épinards de mer ».
 </t>
         </is>
@@ -546,7 +560,9 @@
           <t>Aire de répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L'aster maritime est originaire d'Europe, d'Afrique du Nord et des régions tempérées d'Asie. On peut le rencontrer en France sur toutes les côtes et aussi plus rarement dans quelques endroits salés (Lorraine). On la trouve également dans l'estran de la baie du Mont-Saint-Michel et de la baie de Somme : elle pousse sur les mollières et se récolte à partir du mois d'avril jusqu'en août par des cueilleurs professionnels patentés (plus la plante est jeune, plus les feuilles sont tendres ; en fin de saison, les feuilles sont plus ligneuses, donc moins appétissantes).
 </t>
